--- a/us/readme/08292017-网站字号规范对照表格（第二版）.xlsx
+++ b/us/readme/08292017-网站字号规范对照表格（第二版）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
   <si>
     <t>1920px</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,6 +500,66 @@
 样式标准化设计的好处是：相同元素的样式具有统一性，便于管理及后期维护；灵活化设计使网站架构和修改变得简洁方便。如果是整站的同一级字体字号需要变大或变小，修改class名称即可。其他元素的标准化设计思路也同理，随着二级页面的制作，会总结出其他需要标准化定义的样式。
 </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.title140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.title70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.title42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>117px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31px</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95px/7.3vw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47px/3.6vw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28px/2.15vw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,6 +694,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -644,9 +707,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -953,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -973,15 +1033,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:18" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -1013,16 +1073,16 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -1046,7 +1106,7 @@
       <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="6" t="s">
         <v>62</v>
       </c>
       <c r="I4" s="1"/>
@@ -1082,7 +1142,7 @@
       <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="6" t="s">
         <v>63</v>
       </c>
       <c r="I5" s="1"/>
@@ -1118,7 +1178,7 @@
       <c r="G6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="1"/>
@@ -1154,7 +1214,7 @@
       <c r="G7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="6" t="s">
         <v>65</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -1175,29 +1235,23 @@
         <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1213,29 +1267,23 @@
         <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1246,24 +1294,44 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1272,7 +1340,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>30</v>
@@ -1280,7 +1348,7 @@
       <c r="G11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="6" t="s">
         <v>66</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -1296,12 +1364,12 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
@@ -1310,7 +1378,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
@@ -1318,11 +1386,11 @@
       <c r="G12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="6" t="s">
         <v>67</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1335,28 +1403,45 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="A13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1369,15 +1454,32 @@
     </row>
     <row r="15" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1388,51 +1490,105 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="288.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" ht="288.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A20:I20"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A10:H10"/>
     <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A16:H16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
